--- a/testRunner/GetReport.xlsx
+++ b/testRunner/GetReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -47,7 +47,7 @@
     <t>'3.0.0</t>
   </si>
   <si>
-    <t>2016-11-08 17:02 PM</t>
+    <t>2016-11-08 17:53 PM</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -62,7 +62,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>94秒</t>
+    <t>61秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -99,7 +99,7 @@
 </t>
   </si>
   <si>
-    <t>12.00</t>
+    <t>14.00</t>
   </si>
   <si>
     <t>运行内存</t>
@@ -117,13 +117,13 @@
     <t>3014M</t>
   </si>
   <si>
-    <t>34%</t>
-  </si>
-  <si>
-    <t>152M</t>
-  </si>
-  <si>
-    <t>116.76</t>
+    <t>32%</t>
+  </si>
+  <si>
+    <t>149M</t>
+  </si>
+  <si>
+    <t>116.05</t>
   </si>
   <si>
     <t>CPU</t>
@@ -141,7 +141,7 @@
     <t>53%</t>
   </si>
   <si>
-    <t>88%</t>
+    <t>73%</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -189,13 +189,10 @@
     <t>136M</t>
   </si>
   <si>
-    <t>32%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>17%</t>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>55%</t>
   </si>
   <si>
     <t>41.00</t>
@@ -210,49 +207,19 @@
     <t>test_home_login</t>
   </si>
   <si>
-    <t>43%</t>
-  </si>
-  <si>
-    <t>20.00</t>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>24.00</t>
   </si>
   <si>
     <t>个人反馈</t>
   </si>
   <si>
     <t>test_home_feed</t>
-  </si>
-  <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>应用中心</t>
-  </si>
-  <si>
-    <t>工作汇报</t>
-  </si>
-  <si>
-    <t>test_work_report</t>
-  </si>
-  <si>
-    <t>111M</t>
-  </si>
-  <si>
-    <t>36%</t>
-  </si>
-  <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>30.36</t>
-  </si>
-  <si>
-    <t>9.00</t>
   </si>
 </sst>
 </file>
@@ -689,7 +656,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>16</v>
@@ -707,7 +674,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>17</v>
@@ -938,16 +905,16 @@
         <v>57</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="L3" s="3"/>
     </row>
@@ -959,22 +926,22 @@
         <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>34</v>
@@ -983,7 +950,7 @@
         <v>64</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L4" s="3"/>
     </row>
@@ -1004,61 +971,26 @@
         <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1">
-      <c r="A6" s="3">
-        <v>1005</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="3"/>
-    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1"/>
     <row r="7" spans="1:12" ht="30" customHeight="1"/>
     <row r="8" spans="1:12" ht="30" customHeight="1"/>
   </sheetData>

--- a/testRunner/GetReport.xlsx
+++ b/testRunner/GetReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -38,16 +38,16 @@
     <t>测试日期</t>
   </si>
   <si>
-    <t>智商beta</t>
+    <t>'智商beta'</t>
   </si>
   <si>
     <t>22M</t>
   </si>
   <si>
-    <t>'3.0.0</t>
-  </si>
-  <si>
-    <t>2016-11-08 17:53 PM</t>
+    <t>'3.0.0'</t>
+  </si>
+  <si>
+    <t>2016-11-09 20:22 PM</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -99,7 +99,7 @@
 </t>
   </si>
   <si>
-    <t>14.00</t>
+    <t>18.00</t>
   </si>
   <si>
     <t>运行内存</t>
@@ -117,85 +117,88 @@
     <t>3014M</t>
   </si>
   <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>148M</t>
+  </si>
+  <si>
+    <t>113.06</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>CPU占用均值</t>
+  </si>
+  <si>
+    <t>CPU占用峰值</t>
+  </si>
+  <si>
+    <t>8核</t>
+  </si>
+  <si>
+    <t>48%</t>
+  </si>
+  <si>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>测试详情</t>
+  </si>
+  <si>
+    <t>用例ID</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>用例介绍</t>
+  </si>
+  <si>
+    <t>用例名字</t>
+  </si>
+  <si>
+    <t>内存峰值(M)</t>
+  </si>
+  <si>
+    <t>内存均值(M)</t>
+  </si>
+  <si>
+    <t>CPU峰值</t>
+  </si>
+  <si>
+    <t>CPU均值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试结果 </t>
+  </si>
+  <si>
+    <t>失败原因</t>
+  </si>
+  <si>
+    <t>个人中心</t>
+  </si>
+  <si>
+    <t>引导图</t>
+  </si>
+  <si>
+    <t>test_home_fist_open</t>
+  </si>
+  <si>
+    <t>136M</t>
+  </si>
+  <si>
     <t>32%</t>
   </si>
   <si>
-    <t>149M</t>
-  </si>
-  <si>
-    <t>116.05</t>
-  </si>
-  <si>
-    <t>CPU</t>
-  </si>
-  <si>
-    <t>CPU占用均值</t>
-  </si>
-  <si>
-    <t>CPU占用峰值</t>
-  </si>
-  <si>
-    <t>8核</t>
-  </si>
-  <si>
-    <t>53%</t>
-  </si>
-  <si>
-    <t>73%</t>
-  </si>
-  <si>
-    <t>测试详情</t>
-  </si>
-  <si>
-    <t>用例ID</t>
-  </si>
-  <si>
-    <t>模块</t>
-  </si>
-  <si>
-    <t>用例介绍</t>
-  </si>
-  <si>
-    <t>用例名字</t>
-  </si>
-  <si>
-    <t>内存峰值(M)</t>
-  </si>
-  <si>
-    <t>内存均值(M)</t>
-  </si>
-  <si>
-    <t>CPU峰值</t>
-  </si>
-  <si>
-    <t>CPU均值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试结果 </t>
-  </si>
-  <si>
-    <t>失败原因</t>
-  </si>
-  <si>
-    <t>个人中心</t>
-  </si>
-  <si>
-    <t>引导图</t>
-  </si>
-  <si>
-    <t>test_home_fist_open</t>
-  </si>
-  <si>
-    <t>136M</t>
-  </si>
-  <si>
-    <t>33%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>41.00</t>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>18%</t>
+  </si>
+  <si>
+    <t>40.00</t>
   </si>
   <si>
     <t>成功</t>
@@ -207,13 +210,13 @@
     <t>test_home_login</t>
   </si>
   <si>
-    <t>42%</t>
-  </si>
-  <si>
     <t>41%</t>
   </si>
   <si>
-    <t>24.00</t>
+    <t>35%</t>
+  </si>
+  <si>
+    <t>32.00</t>
   </si>
   <si>
     <t>个人反馈</t>
@@ -905,16 +908,16 @@
         <v>57</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" s="3"/>
     </row>
@@ -926,31 +929,31 @@
         <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" s="3"/>
     </row>
@@ -962,10 +965,10 @@
         <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>33</v>
@@ -986,7 +989,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L5" s="3"/>
     </row>

--- a/testRunner/GetReport.xlsx
+++ b/testRunner/GetReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -23,9 +23,6 @@
     <t>测试概括</t>
   </si>
   <si>
-    <t>这里放图片</t>
-  </si>
-  <si>
     <t>APP名称</t>
   </si>
   <si>
@@ -47,7 +44,7 @@
     <t>'3.0.0'</t>
   </si>
   <si>
-    <t>2016-11-09 20:22 PM</t>
+    <t>2016-11-24 10:52 AM</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -62,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>61秒</t>
+    <t>57秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,76 +74,101 @@
     <t>手机名字</t>
   </si>
   <si>
+    <t>运行内存</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
     <t>手机分辨率</t>
   </si>
   <si>
-    <t>手机系统</t>
+    <t>内存占用均值</t>
+  </si>
+  <si>
+    <t>内存占用峰值</t>
+  </si>
+  <si>
+    <t>CPU占用均值</t>
+  </si>
+  <si>
+    <t>CPU占用峰值</t>
   </si>
   <si>
     <t>FPS均值</t>
   </si>
   <si>
-    <t xml:space="preserve">H60-L02
- Huawei
+    <t>FPS峰值</t>
+  </si>
+  <si>
+    <t>ZTE_V9180_android_4.3</t>
+  </si>
+  <si>
+    <t>848M</t>
+  </si>
+  <si>
+    <t>4核</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 720x1280
 </t>
+  </si>
+  <si>
+    <t>47%</t>
+  </si>
+  <si>
+    <t>52M</t>
+  </si>
+  <si>
+    <t>37%</t>
+  </si>
+  <si>
+    <t>47.0%</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>20.83</t>
+  </si>
+  <si>
+    <t>Huawei_H60-L02_android_4.4.2</t>
+  </si>
+  <si>
+    <t>3014M</t>
+  </si>
+  <si>
+    <t>8核</t>
   </si>
   <si>
     <t xml:space="preserve"> 1080x1920
 </t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.2
-</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>运行内存</t>
-  </si>
-  <si>
-    <t>内存占用均值</t>
-  </si>
-  <si>
-    <t>内存占用峰值</t>
-  </si>
-  <si>
-    <t>FPS峰值</t>
-  </si>
-  <si>
-    <t>3014M</t>
-  </si>
-  <si>
-    <t>30%</t>
-  </si>
-  <si>
-    <t>148M</t>
-  </si>
-  <si>
-    <t>113.06</t>
-  </si>
-  <si>
-    <t>CPU</t>
-  </si>
-  <si>
-    <t>CPU占用均值</t>
-  </si>
-  <si>
-    <t>CPU占用峰值</t>
-  </si>
-  <si>
-    <t>8核</t>
+    <t>21%</t>
+  </si>
+  <si>
+    <t>76M</t>
   </si>
   <si>
     <t>48%</t>
   </si>
   <si>
-    <t>73%</t>
+    <t>64.0%</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>51.93</t>
   </si>
   <si>
     <t>测试详情</t>
   </si>
   <si>
+    <t>机型</t>
+  </si>
+  <si>
     <t>用例ID</t>
   </si>
   <si>
@@ -177,46 +199,40 @@
     <t>失败原因</t>
   </si>
   <si>
-    <t>个人中心</t>
-  </si>
-  <si>
-    <t>引导图</t>
-  </si>
-  <si>
-    <t>test_home_fist_open</t>
-  </si>
-  <si>
-    <t>136M</t>
-  </si>
-  <si>
-    <t>32%</t>
-  </si>
-  <si>
-    <t>54%</t>
+    <t>我的</t>
+  </si>
+  <si>
+    <t>登陆</t>
+  </si>
+  <si>
+    <t>test_home_login</t>
+  </si>
+  <si>
+    <t>59M</t>
   </si>
   <si>
     <t>18%</t>
   </si>
   <si>
-    <t>40.00</t>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>17.00</t>
   </si>
   <si>
     <t>成功</t>
   </si>
   <si>
-    <t>登陆</t>
-  </si>
-  <si>
-    <t>test_home_login</t>
-  </si>
-  <si>
-    <t>41%</t>
-  </si>
-  <si>
-    <t>35%</t>
-  </si>
-  <si>
-    <t>32.00</t>
+    <t>28M</t>
+  </si>
+  <si>
+    <t>24%</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>3.00</t>
   </si>
   <si>
     <t>个人反馈</t>
@@ -611,7 +627,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,7 +641,7 @@
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,9 +649,8 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1">
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -643,171 +658,189 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1">
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+    <row r="5" spans="1:10" ht="30" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1"/>
-    <row r="9" spans="1:6">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1"/>
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1">
       <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="I11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1">
+      <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1"/>
+        <v>43</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="A9:F9"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -815,7 +848,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -831,9 +864,9 @@
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -846,159 +879,210 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1">
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1">
-      <c r="A3" s="3">
-        <v>1001</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="K3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1">
-      <c r="A4" s="3">
-        <v>1002</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" ht="30" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1">
-      <c r="A5" s="3">
-        <v>1003</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1"/>
-    <row r="7" spans="1:12" ht="30" customHeight="1"/>
-    <row r="8" spans="1:12" ht="30" customHeight="1"/>
+      <c r="D6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1"/>
+    <row r="8" spans="1:13" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testRunner/GetReport.xlsx
+++ b/testRunner/GetReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -35,16 +35,16 @@
     <t>测试日期</t>
   </si>
   <si>
-    <t>'智商beta'</t>
-  </si>
-  <si>
-    <t>22M</t>
-  </si>
-  <si>
-    <t>'3.0.0'</t>
-  </si>
-  <si>
-    <t>2016-11-24 10:52 AM</t>
+    <t>'monkneyTest'</t>
+  </si>
+  <si>
+    <t>0M</t>
+  </si>
+  <si>
+    <t>'1.0'</t>
+  </si>
+  <si>
+    <t>2016-12-05 10:29 AM</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>57秒</t>
+    <t>34秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -101,10 +101,10 @@
     <t>FPS峰值</t>
   </si>
   <si>
-    <t>ZTE_V9180_android_4.3</t>
-  </si>
-  <si>
-    <t>848M</t>
+    <t>Honor_msm8909_android_5.1.1</t>
+  </si>
+  <si>
+    <t>1914M</t>
   </si>
   <si>
     <t>4核</t>
@@ -114,22 +114,19 @@
 </t>
   </si>
   <si>
-    <t>47%</t>
-  </si>
-  <si>
-    <t>52M</t>
-  </si>
-  <si>
-    <t>37%</t>
-  </si>
-  <si>
-    <t>47.0%</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>20.83</t>
+    <t>7%</t>
+  </si>
+  <si>
+    <t>12M</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
   <si>
     <t>Huawei_H60-L02_android_4.4.2</t>
@@ -145,24 +142,6 @@
 </t>
   </si>
   <si>
-    <t>21%</t>
-  </si>
-  <si>
-    <t>76M</t>
-  </si>
-  <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>64.0%</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>51.93</t>
-  </si>
-  <si>
     <t>测试详情</t>
   </si>
   <si>
@@ -199,53 +178,44 @@
     <t>失败原因</t>
   </si>
   <si>
-    <t>我的</t>
-  </si>
-  <si>
-    <t>登陆</t>
-  </si>
-  <si>
-    <t>test_home_login</t>
-  </si>
-  <si>
-    <t>59M</t>
-  </si>
-  <si>
-    <t>18%</t>
-  </si>
-  <si>
-    <t>33%</t>
-  </si>
-  <si>
-    <t>17.00</t>
-  </si>
-  <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>28M</t>
-  </si>
-  <si>
-    <t>24%</t>
-  </si>
-  <si>
-    <t>3.12</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>个人反馈</t>
+    <t>截图</t>
+  </si>
+  <si>
+    <t>日志</t>
+  </si>
+  <si>
+    <t>闪退测试</t>
   </si>
   <si>
     <t>test_home_feed</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>检查不到元素</t>
+  </si>
+  <si>
+    <t>闪退测试2</t>
+  </si>
+  <si>
+    <t>23M</t>
+  </si>
+  <si>
+    <t>4%</t>
+  </si>
+  <si>
+    <t>崩溃了</t>
+  </si>
+  <si>
+    <t>下载日志</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +243,15 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -319,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -333,6 +312,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,6 +322,87 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="test_home_feed_20161205103007_CheckPoint_NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="571500"/>
+          <a:ext cx="685800" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="test_home_feed_20161205103013_CheckPoint_NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="1962150"/>
+          <a:ext cx="1028700" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -670,7 +733,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -687,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -704,7 +767,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -789,49 +852,47 @@
       <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1">
       <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1"/>
@@ -848,25 +909,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -880,34 +931,36 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1">
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>27</v>
@@ -916,174 +969,109 @@
         <v>26</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="110" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1002</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1">
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" ht="110" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3">
         <v>1002</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1003</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1003</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1"/>
-    <row r="8" spans="1:13" ht="30" customHeight="1"/>
+      <c r="O4" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="O4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>